--- a/Example_scripts/Input example time-decay.xlsx
+++ b/Example_scripts/Input example time-decay.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365tno-my.sharepoint.com/personal/bart_davids_tno_nl/Documents/Documents/PySub/Example_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7C183872-C07A-4FFC-8411-95D01475A716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38A464C3-66DA-4738-8473-DD57BFDFA6E4}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{7C183872-C07A-4FFC-8411-95D01475A716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A69FBFCE-5847-4477-B880-F4B2AB4EF806}"/>
   <bookViews>
-    <workbookView xWindow="32325" yWindow="3345" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{555B1425-0405-477B-A81F-DC1674E6CB4A}"/>
   </bookViews>
   <sheets>
     <sheet name="Model parameters" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Reference stress rate (Pa/year)</t>
-  </si>
-  <si>
     <t>Lower error (m)</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>../Tutorials/Shapefiles/Norg.shp</t>
+  </si>
+  <si>
+    <t>Reference stress rate (bar/year)</t>
   </si>
 </sst>
 </file>
@@ -531,14 +531,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -555,13 +555,13 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -612,25 +612,25 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -641,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -653,16 +653,16 @@
         <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="K1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L1" t="s">
         <v>27</v>
@@ -671,12 +671,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>6000</v>
@@ -711,12 +711,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>5000</v>
@@ -751,12 +751,12 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>6500</v>
@@ -806,13 +806,13 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -880,7 +880,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -957,7 +957,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1107,9 +1107,9 @@
       <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>567600</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -1155,15 +1155,15 @@
       <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -1177,16 +1177,16 @@
         <v>22</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1438,9 +1438,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
